--- a/src/test/resources/xls/products.xlsx
+++ b/src/test/resources/xls/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julim\Documents\SolvdCourse\webTesting\src\test\resources\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julim\Documents\webTesting\src\test\resources\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B546D9-E746-45F2-B3CE-645ACE801D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B09055-075D-4ABC-BD9D-105730D4DC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88BFB28-B3A7-4A52-9E9F-E0F75217F299}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{E88BFB28-B3A7-4A52-9E9F-E0F75217F299}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchProducts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Execute</t>
   </si>
@@ -48,13 +48,16 @@
     <t>product</t>
   </si>
   <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>galaxy</t>
-  </si>
-  <si>
-    <t>watch</t>
+    <t>Iphone 12</t>
+  </si>
+  <si>
+    <t>Macbook 16</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 6</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +446,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -478,13 +487,13 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
@@ -494,13 +503,13 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
